--- a/KM5c_data/ODP_Site_959.xlsx
+++ b/KM5c_data/ODP_Site_959.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,16 +428,6 @@
           <t>MgCa Temperature anomaly_Original - ERSST</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MgCa Temperature anomaly_Original - Coretop</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -482,7 +472,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Van der Weijst et al. (in prep)</t>
+          <t>van der Weijst and Peterse (Unpublished data)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -491,16 +481,10 @@
         </is>
       </c>
       <c r="M2">
-        <v>27.0771524</v>
+        <v>27.31</v>
       </c>
       <c r="N2">
-        <v>0.5228476000000022</v>
-      </c>
-      <c r="O2">
-        <v>0.5127</v>
-      </c>
-      <c r="P2">
-        <v>-3.611825</v>
+        <v>0.2875847710503443</v>
       </c>
     </row>
   </sheetData>
